--- a/volkswagen.xlsx
+++ b/volkswagen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="467">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1493,6 +1493,10 @@
   </si>
   <si>
     <t>Relevancia</t>
+  </si>
+  <si>
+    <t>rt @hooliganeses: #timbeta #sdv #rt
+volkswagen volta a operar em 3 t+A1:A301urnos no abc paulista https://t.co/gue4jqgqpx https://t.co/umutywydv1</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1595,6 +1599,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1903,7 +1910,7 @@
   <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -1958,14 +1965,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2005,16 +2014,16 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2034,7 +2043,9 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2112,9 +2123,7 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2136,9 +2145,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2248,9 +2255,7 @@
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2288,9 +2293,7 @@
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -2408,9 +2411,7 @@
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2425,7 +2426,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2433,7 +2434,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2481,7 +2482,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2536,9 +2537,7 @@
       <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -2553,7 +2552,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2561,7 +2560,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2617,16 +2616,14 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -2641,7 +2638,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2681,7 +2678,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2689,7 +2686,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2705,7 +2702,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2721,7 +2718,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2841,7 +2838,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3088,9 +3085,7 @@
       <c r="A148" t="s">
         <v>141</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B148" s="4"/>
     </row>
     <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -3185,7 +3180,7 @@
         <v>152</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3233,7 +3228,7 @@
         <v>158</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3241,7 +3236,7 @@
         <v>159</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3273,7 +3268,7 @@
         <v>163</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3310,7 +3305,9 @@
       <c r="A176" t="s">
         <v>168</v>
       </c>
-      <c r="B176" s="5"/>
+      <c r="B176" s="5" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -4266,9 +4263,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>75</v>
+    <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
+        <v>466</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>462</v>
@@ -4288,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B202" sqref="A202:B15934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,6 +4299,9 @@
       <c r="A1" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="B1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4331,11 +4331,17 @@
       <c r="A5" t="s">
         <v>289</v>
       </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4421,6 +4427,9 @@
       <c r="A17" t="s">
         <v>297</v>
       </c>
+      <c r="B17" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4482,6 +4491,9 @@
       <c r="A25" t="s">
         <v>289</v>
       </c>
+      <c r="B25" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4535,6 +4547,9 @@
       <c r="A32" t="s">
         <v>310</v>
       </c>
+      <c r="B32" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4548,6 +4563,9 @@
       <c r="A34" t="s">
         <v>312</v>
       </c>
+      <c r="B34" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4561,6 +4579,9 @@
       <c r="A36" t="s">
         <v>314</v>
       </c>
+      <c r="B36" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4582,6 +4603,9 @@
       <c r="A39" t="s">
         <v>317</v>
       </c>
+      <c r="B39" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -4707,6 +4731,9 @@
       <c r="A55" t="s">
         <v>332</v>
       </c>
+      <c r="B55" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -4872,6 +4899,9 @@
       <c r="A76" t="s">
         <v>351</v>
       </c>
+      <c r="B76" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -5069,6 +5099,9 @@
       <c r="A101" t="s">
         <v>371</v>
       </c>
+      <c r="B101" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -5202,6 +5235,9 @@
       <c r="A118" t="s">
         <v>384</v>
       </c>
+      <c r="B118" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5263,6 +5299,9 @@
       <c r="A126" t="s">
         <v>391</v>
       </c>
+      <c r="B126" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -5300,6 +5339,9 @@
       <c r="A131" t="s">
         <v>396</v>
       </c>
+      <c r="B131" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -5521,6 +5563,9 @@
       <c r="A159" t="s">
         <v>421</v>
       </c>
+      <c r="B159" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -5678,6 +5723,9 @@
       <c r="A179" t="s">
         <v>440</v>
       </c>
+      <c r="B179" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -5851,11 +5899,12 @@
       <c r="A201" t="s">
         <v>461</v>
       </c>
+      <c r="B201" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="1048576" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1048576" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B1048576" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
